--- a/1- aula/Avaliação Diagnóstica.xlsx
+++ b/1- aula/Avaliação Diagnóstica.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Paiva\Documents\Excel---Mahle\1- aula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\Excel---Mahle\1- aula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{04E4A189-BDA0-412A-97DE-5C91E4A27541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B69A04-3FFF-4D60-8941-AEFF58BCED85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{BB85FFCE-2752-4A2E-B68C-54401DF88161}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB85FFCE-2752-4A2E-B68C-54401DF88161}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="AV - DIAGNÓSTICA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Avaliação Diagnóstica - Excel Básico</t>
   </si>
@@ -94,6 +105,9 @@
   </si>
   <si>
     <t>o lucro líquido</t>
+  </si>
+  <si>
+    <t>Add 30% no preço de venda.</t>
   </si>
 </sst>
 </file>
@@ -236,12 +250,12 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,9 +264,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -264,19 +275,22 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -285,20 +299,6 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -399,6 +399,20 @@
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -413,22 +427,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D8B61E5-8AAC-42B5-9EDA-83C84E592E56}" name="Tabela2" displayName="Tabela2" ref="B5:E15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D8B61E5-8AAC-42B5-9EDA-83C84E592E56}" name="Tabela2" displayName="Tabela2" ref="B5:E15" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B5:E15" xr:uid="{6C3E4488-5A6B-4C43-B425-4B024E300BB6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6AFEC6AD-04AF-4A30-9ED9-38A89C3BECBD}" name="Cod" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{8D729090-D5BC-49DE-BE49-A538B558E898}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{94179299-5E78-4EF1-88AE-9C1091877F56}" name="Preço de Custo" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FB1C3DB2-B3EA-49FD-90D4-36D42570593B}" name="Preço de Venda" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6AFEC6AD-04AF-4A30-9ED9-38A89C3BECBD}" name="Cod" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8D729090-D5BC-49DE-BE49-A538B558E898}" name="Produto" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{94179299-5E78-4EF1-88AE-9C1091877F56}" name="Preço de Custo" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{FB1C3DB2-B3EA-49FD-90D4-36D42570593B}" name="Preço de Venda" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +480,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -572,7 +586,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,56 +739,59 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="8.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="2"/>
-    <col min="7" max="7" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2"/>
+    <col min="7" max="7" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="G4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -793,17 +810,17 @@
       <c r="H5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>43243</v>
       </c>
@@ -816,27 +833,27 @@
       <c r="E6" s="5">
         <v>650</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>874</v>
       </c>
-      <c r="H6" s="12" t="str">
+      <c r="H6" s="11" t="str">
         <f>VLOOKUP($G$6,Tabela2[#All],2,0)</f>
         <v>Sistema de Ar</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f>VLOOKUP($G$6,Tabela2[#All],3,0)</f>
         <v>140</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>VLOOKUP($G$6,Tabela2[#All],4,0)</f>
         <v>182</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>J6-I6</f>
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>123</v>
       </c>
@@ -850,27 +867,27 @@
         <f>Tabela2[[#This Row],[Preço de Custo]]*30%+Tabela2[[#This Row],[Preço de Custo]]</f>
         <v>325</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>123</v>
       </c>
-      <c r="H7" s="12" t="str">
+      <c r="H7" s="11" t="str">
         <f>VLOOKUP($G$7,Tabela2[#All],2,0)</f>
         <v>Cilindros</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <f>VLOOKUP($G$7,Tabela2[#All],3,0)</f>
         <v>250</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <f>VLOOKUP($G$7,Tabela2[#All],4,0)</f>
         <v>325</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>J7-I7</f>
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>6543</v>
       </c>
@@ -884,27 +901,27 @@
         <f>Tabela2[[#This Row],[Preço de Custo]]*30%+Tabela2[[#This Row],[Preço de Custo]]</f>
         <v>390</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>765</v>
       </c>
-      <c r="H8" s="12" t="str">
+      <c r="H8" s="11" t="str">
         <f>VLOOKUP($G$8,Tabela2[#All],2,0)</f>
         <v>Bielas</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="15">
         <f>VLOOKUP($G$8,Tabela2[#All],3,0)</f>
         <v>50</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <f>VLOOKUP($G$8,Tabela2[#All],4,0)</f>
         <v>65</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f t="shared" ref="K8" si="0">J8-I8</f>
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>874</v>
       </c>
@@ -918,9 +935,9 @@
         <f>Tabela2[[#This Row],[Preço de Custo]]*30%+Tabela2[[#This Row],[Preço de Custo]]</f>
         <v>182</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>9876</v>
       </c>
@@ -934,9 +951,9 @@
         <f>Tabela2[[#This Row],[Preço de Custo]]*30%+Tabela2[[#This Row],[Preço de Custo]]</f>
         <v>104</v>
       </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>2566</v>
       </c>
@@ -953,12 +970,12 @@
       <c r="G11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="16">
         <f>SUM(Tabela2[Preço de Custo])</f>
         <v>1460</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>765</v>
       </c>
@@ -975,12 +992,12 @@
       <c r="G12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <f>SUM(Tabela2[Preço de Venda])</f>
         <v>2028</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>7857</v>
       </c>
@@ -997,12 +1014,12 @@
       <c r="G13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="16">
         <f>H12-H11</f>
         <v>568</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>2562</v>
       </c>
@@ -1019,12 +1036,12 @@
       <c r="G14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <f>H13/H12</f>
         <v>0.28007889546351084</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>76541</v>
       </c>
@@ -1038,16 +1055,16 @@
         <f>Tabela2[[#This Row],[Preço de Custo]]*30%+Tabela2[[#This Row],[Preço de Custo]]</f>
         <v>130</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H17" s="11"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
